--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>895495.3859166238</v>
+        <v>924518.4331568545</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.95395642</v>
+        <v>236428.331398364</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728813</v>
+        <v>9662474.503279347</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8833218.586775606</v>
+        <v>8546297.344331576</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>307.7676307244768</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>243.2386572690345</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +743,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>76.25603161137886</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.682695777305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>13.46550985000064</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903419</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>179.9269603489844</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>311.4936872159408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553082</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755684</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1075,7 +1077,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1133,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>187.1086023358201</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>79.78598944289577</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T9" t="n">
         <v>196.8897623984489</v>
@@ -1336,7 +1338,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -1345,7 +1347,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>54.47555601903397</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>144.2406440115528</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>144.9998968003358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1534,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>69.07086245343525</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1658,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>63.10802839794309</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1771,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1816,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>156.1271626621473</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>237.4552014283703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>230.2634979541061</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>195.1509705068316</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>334.5817096732204</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2177,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
         <v>61.42221998250818</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>196.7218456862863</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>102.2951235799359</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>317.4594234814422</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2479,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>60.38235645081264</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -2494,7 +2496,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>52.10844059186253</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>26.91406330663617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>94.63926978364051</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2795,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>340.0237825764897</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>61.63452494711067</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2956,22 +2958,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.2114886365808</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>53.87467807705956</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>165.5528448095113</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3125,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>118.9913269637019</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>94.63926978364063</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.7835007017901</v>
+        <v>101.780687729549</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3560,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>323.9918595228955</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>52.10844059186244</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,16 +3745,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>26.94389492651078</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>94.63926978364046</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -3958,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>284.56151600587</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>284.5615160058693</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>101.7806877295488</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>128.78350070179</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982766</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982766</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982766</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982766</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036447</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.84331964269</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862887</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.483574129471</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982766</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982766</v>
+        <v>579.9844679696338</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>432.8092999397193</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>258.3562706585923</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>258.3562706585923</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>99.11881565313678</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>99.11881565313678</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>99.11881565313678</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036447</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036447</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571351</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>288.9361218459457</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517454</v>
+        <v>562.3310704112776</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537798</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152627</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>836.17674519153</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>836.17674519153</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167583</v>
+        <v>836.17674519153</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>601.0246369597874</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207639</v>
+        <v>601.0246369597874</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002106</v>
+        <v>601.0246369597874</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>601.0246369597874</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036447</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036447</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036447</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036447</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036447</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036447</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036447</v>
+        <v>35.69404619719919</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036447</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036447</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866327</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502503</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594904</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064347</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600566</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942406</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124033</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810051</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036447</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036447</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036447</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036447</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036447</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036447</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018223</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018223</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y5" t="n">
-        <v>2382.509002921313</v>
+        <v>2289.351746278601</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170839</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359569</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747056</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692501</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961351</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424012</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517454</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537798</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152627</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E7" t="n">
         <v>709.5665374816297</v>
@@ -4723,7 +4725,7 @@
         <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,7 +4734,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4743,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.358670716696</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4799,16 +4801,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2616.557182490045</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2397.922515462108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2144.1607301002</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1813.097842756629</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1813.097842756629</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.097842756629</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1422.958510780817</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4878,34 +4880,34 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073964</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810048</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>797.9969330253591</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="C11" t="n">
-        <v>797.9969330253591</v>
+        <v>1270.889273203046</v>
       </c>
       <c r="D11" t="n">
-        <v>439.7312344186087</v>
+        <v>912.6235745962956</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>526.8353219980513</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5039,19 +5041,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2057.295728843236</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W11" t="n">
-        <v>1704.527073573122</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X11" t="n">
-        <v>1331.061315312042</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y11" t="n">
-        <v>1184.596773089481</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="12">
@@ -5109,7 +5111,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5136,13 +5138,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
         <v>2488.762748073963</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5218,31 +5220,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1422.14692331494</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C14" t="n">
-        <v>1422.14692331494</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="D14" t="n">
         <v>1422.14692331494</v>
@@ -5276,19 +5278,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5306,22 +5308,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W14" t="n">
-        <v>1485.892406545185</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X14" t="n">
-        <v>1422.14692331494</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y14" t="n">
-        <v>1422.14692331494</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
         <v>53.94298182036446</v>
@@ -5370,10 +5372,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5400,7 +5402,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036446</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036446</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036446</v>
@@ -5464,22 +5466,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>211.6471865296041</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1363.553390680693</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>1363.553390680693</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>1363.553390680693</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1753.692722656504</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>1363.553390680693</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5601,22 +5603,22 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
         <v>2488.762748073963</v>
@@ -5631,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5698,25 +5700,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1233.480863147839</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C20" t="n">
-        <v>1036.358670716696</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="D20" t="n">
-        <v>1036.358670716696</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E20" t="n">
-        <v>1036.358670716696</v>
+        <v>802.8902095122148</v>
       </c>
       <c r="F20" t="n">
-        <v>625.3727659270879</v>
+        <v>391.9043047226073</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5768,34 +5770,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V20" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W20" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X20" t="n">
-        <v>1620.08070321196</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>1620.08070321196</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5805,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5874,7 +5876,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V22" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W22" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X22" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1783.124109094748</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C23" t="n">
-        <v>1414.161592154336</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D23" t="n">
-        <v>1055.895893547586</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>1055.895893547586</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>2169.72394915887</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W23" t="n">
-        <v>2169.72394915887</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X23" t="n">
-        <v>2169.72394915887</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y23" t="n">
-        <v>2169.72394915887</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6078,31 +6080,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D25" t="n">
-        <v>728.1289842064342</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E25" t="n">
-        <v>580.2158906240411</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="F25" t="n">
-        <v>433.3259431261307</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G25" t="n">
-        <v>264.3261428644631</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H25" t="n">
-        <v>106.5777702969933</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1289.01781586839</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C26" t="n">
-        <v>920.0552989279781</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D26" t="n">
-        <v>561.7896003212277</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E26" t="n">
-        <v>534.603677789272</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F26" t="n">
-        <v>534.603677789272</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>1289.01781586839</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y26" t="n">
-        <v>1289.01781586839</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6302,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6324,7 +6326,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
         <v>2646.935720430048</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>570.6683391887233</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V28" t="n">
-        <v>343.360151857325</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1689.203741822952</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C29" t="n">
-        <v>1689.203741822952</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D29" t="n">
-        <v>1330.938043216202</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="E29" t="n">
-        <v>945.1497906179575</v>
+        <v>808.3872528488505</v>
       </c>
       <c r="F29" t="n">
-        <v>534.16388582835</v>
+        <v>397.4013480592429</v>
       </c>
       <c r="G29" t="n">
-        <v>116.2000777265368</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>116.2000777265368</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>2465.942913862886</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X29" t="n">
-        <v>2465.942913862886</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y29" t="n">
-        <v>2075.803581887074</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="30">
@@ -6516,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036423</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.1903022614628</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.81559303506</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C31" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>709.5665374816297</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
-        <v>562.6765899837193</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>393.6767897220517</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>235.9284171545819</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>2540.369809567131</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>2540.369809567131</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>2540.369809567131</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>2540.369809567131</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>2250.95263953017</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1912.117978031581</v>
+        <v>808.6937513590204</v>
       </c>
       <c r="C32" t="n">
-        <v>1543.155461091169</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="D32" t="n">
-        <v>1184.889762484419</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E32" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6713,7 +6715,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P32" t="n">
         <v>2544.691559791253</v>
@@ -6722,28 +6724,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.730224273719</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.730224273719</v>
       </c>
       <c r="T32" t="n">
-        <v>2298.717818095703</v>
+        <v>2642.730224273719</v>
       </c>
       <c r="U32" t="n">
-        <v>2298.717818095703</v>
+        <v>2642.730224273719</v>
       </c>
       <c r="V32" t="n">
-        <v>2298.717818095703</v>
+        <v>2311.667336930148</v>
       </c>
       <c r="W32" t="n">
-        <v>2298.717818095703</v>
+        <v>1958.898681660034</v>
       </c>
       <c r="X32" t="n">
-        <v>2298.717818095703</v>
+        <v>1585.432923398954</v>
       </c>
       <c r="Y32" t="n">
-        <v>2298.717818095703</v>
+        <v>1195.293591423142</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204945</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L33" t="n">
         <v>789.0633827572649</v>
@@ -6789,13 +6791,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6822,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>380.6275373157412</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N34" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S34" t="n">
-        <v>607.9357246471395</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T34" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U34" t="n">
-        <v>380.6275373157412</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V34" t="n">
-        <v>380.6275373157412</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W34" t="n">
-        <v>380.6275373157412</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X34" t="n">
-        <v>380.6275373157412</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y34" t="n">
-        <v>380.6275373157412</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1577.945354755379</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.982837814967</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D35" t="n">
-        <v>850.7171392082163</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036446</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>2354.684526795312</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y35" t="n">
-        <v>1964.5451948195</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036446</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7102,43 +7104,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>598.044640063212</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="S37" t="n">
-        <v>598.044640063212</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="T37" t="n">
-        <v>598.044640063212</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="U37" t="n">
-        <v>598.044640063212</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="V37" t="n">
-        <v>343.3601518573251</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036446</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036446</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036446</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1219.679656148628</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C38" t="n">
-        <v>850.7171392082163</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D38" t="n">
-        <v>850.7171392082163</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036446</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036446</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2369.884586449642</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>2369.884586449642</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>1996.418828188562</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y38" t="n">
-        <v>1606.27949621275</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2697.149091018223</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>2697.149091018223</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>2697.149091018223</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>2549.23599743583</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>2402.346049937919</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>2233.346249676252</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>2075.597877108782</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
         <v>2022.963088632153</v>
@@ -7366,16 +7368,16 @@
         <v>2697.149091018223</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018223</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W40" t="n">
-        <v>2697.149091018223</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X40" t="n">
-        <v>2697.149091018223</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>2697.149091018223</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.959449965771</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C41" t="n">
-        <v>797.9969330253592</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D41" t="n">
-        <v>439.7312344186087</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036446</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036446</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2669.933035536899</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2317.164380266785</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>1943.698622005704</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y41" t="n">
-        <v>1553.559290029893</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7533,7 +7535,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7578,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>343.3601518573251</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>343.3601518573251</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036446</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036446</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>210.9658229629848</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1865.381229508783</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C44" t="n">
-        <v>1496.418712568371</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D44" t="n">
-        <v>1138.15301396162</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E44" t="n">
-        <v>752.3647613633761</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>341.3788565737686</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7667,31 +7669,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X44" t="n">
-        <v>2642.120401548716</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y44" t="n">
-        <v>2251.981069572904</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2294.708047044453</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>2125.771864116546</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>2125.771864116546</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>2125.771864116546</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>2125.771864116546</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171279</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U46" t="n">
-        <v>2697.149091018223</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>2697.149091018223</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X46" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
-        <v>2476.356511874693</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270189</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>122.1984598562865</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093293</v>
+        <v>392.5864374864155</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8304,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451762</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8784,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9018,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,13 +9728,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10355,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928328</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928328</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928328</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22556,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>99.10841501723468</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>126.4924434094345</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="3">
@@ -22629,22 +22631,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>35.25189549206559</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22677,22 +22679,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>140.0857793320303</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853697</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229436</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>185.3459314220231</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22799,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22844,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>74.74425144011275</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22948,7 +22950,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890123</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22984,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -23021,19 +23023,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>226.6755676849749</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -23066,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>94.62972336607574</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23200,7 +23202,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23233,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>231.8063182229438</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>262.6354017301587</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23312,7 +23314,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.2380418557177</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23422,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>231.8063182229438</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>285.6121791672477</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23546,22 +23548,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>306.6230722805259</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23704,13 +23706,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>96.01048066168073</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23795,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>132.2758992500987</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>72.67053247541037</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23938,19 +23940,19 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>56.01837628787163</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>170.1219212641759</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>79.20246034757463</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24148,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>21.8741453697219</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>28.98780970275089</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>304.5809221617756</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>52.27167719702686</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24367,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>85.03869157211861</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,10 +24384,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>82.85718120047571</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>355.0163067656256</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24622,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>56.2595003824851</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24683,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>73.76038744430531</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>90.29679129775059</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -24740,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24844,22 +24846,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>56.93405031343812</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24898,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24920,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>0.6037244977521041</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>50.89547554814652</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25090,13 +25092,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,25 +25119,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>93.15421198631705</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25157,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25357,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>17.88169127836775</v>
+        <v>44.88450425060881</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25369,16 +25371,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25448,7 +25450,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>3.760398947239423</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>82.85718120047579</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>45.199959188537</v>
@@ -25606,13 +25608,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724728</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25631,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25685,10 +25687,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>300.8083635436241</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>11.85718952785675</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25837,7 +25839,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3958356744438</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>129.222654014925</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25928,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>85.16958467259974</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>65.5291145295021</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26077,19 +26079,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>763912.8841460877</v>
+        <v>476991.6417020574</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>763912.8841460876</v>
+        <v>763912.8841460875</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>763912.8841460876</v>
+        <v>763912.8841460875</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460876</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460873</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>763912.8841460876</v>
+        <v>763912.8841460875</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460876</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460876</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460873</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>763912.8841460876</v>
+        <v>763912.8841460875</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460873</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>168322.7414503684</v>
+      </c>
+      <c r="C2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="D2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="C2" t="n">
-        <v>274694.9795149699</v>
-      </c>
-      <c r="D2" t="n">
-        <v>274694.9795149699</v>
-      </c>
       <c r="E2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="F2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="G2" t="n">
+        <v>274694.9795149695</v>
+      </c>
+      <c r="H2" t="n">
+        <v>274694.9795149695</v>
+      </c>
+      <c r="I2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="J2" t="n">
         <v>274694.9795149697</v>
-      </c>
-      <c r="H2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="I2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="J2" t="n">
-        <v>274694.9795149698</v>
       </c>
       <c r="K2" t="n">
         <v>274694.9795149697</v>
@@ -26344,13 +26346,13 @@
         <v>274694.9795149698</v>
       </c>
       <c r="M2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="N2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="O2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="P2" t="n">
         <v>274694.9795149697</v>
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145448</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>440708.0835147457</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>72254.69487113909</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>102466.1171957466</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27086.83710496504</v>
+        <v>25384.5047005482</v>
       </c>
       <c r="C4" t="n">
         <v>27086.83710496504</v>
@@ -26424,13 +26426,13 @@
         <v>27086.83710496504</v>
       </c>
       <c r="E4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="F4" t="n">
         <v>27086.83710496504</v>
       </c>
       <c r="G4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="H4" t="n">
         <v>27086.83710496504</v>
@@ -26457,7 +26459,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="P4" t="n">
-        <v>27086.83710496505</v>
+        <v>27086.83710496504</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26485,31 +26487,31 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-425218.8148679496</v>
+        <v>-34536.48421377287</v>
       </c>
       <c r="C6" t="n">
+        <v>-275959.0191681506</v>
+      </c>
+      <c r="D6" t="n">
         <v>164749.0643465953</v>
       </c>
-      <c r="D6" t="n">
-        <v>164749.0643465954</v>
-      </c>
       <c r="E6" t="n">
-        <v>198376.6643465951</v>
+        <v>198376.6643465952</v>
       </c>
       <c r="F6" t="n">
-        <v>198376.6643465954</v>
+        <v>198376.6643465952</v>
       </c>
       <c r="G6" t="n">
-        <v>198376.6643465952</v>
+        <v>198376.664346595</v>
       </c>
       <c r="H6" t="n">
-        <v>198376.6643465952</v>
+        <v>198376.664346595</v>
       </c>
       <c r="I6" t="n">
-        <v>198376.6643465952</v>
+        <v>198376.6643465953</v>
       </c>
       <c r="J6" t="n">
-        <v>21953.44515400229</v>
+        <v>126121.9694754561</v>
       </c>
       <c r="K6" t="n">
-        <v>198376.6643465952</v>
+        <v>95910.54715084856</v>
       </c>
       <c r="L6" t="n">
         <v>198376.6643465953</v>
       </c>
       <c r="M6" t="n">
-        <v>198376.6643465952</v>
+        <v>198376.6643465951</v>
       </c>
       <c r="N6" t="n">
         <v>198376.6643465952</v>
       </c>
       <c r="O6" t="n">
-        <v>198376.6643465951</v>
+        <v>198376.6643465952</v>
       </c>
       <c r="P6" t="n">
-        <v>198376.6643465952</v>
+        <v>198376.6643465953</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170869</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170867</v>
@@ -26753,19 +26755,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="M3" t="n">
         <v>377.7436642170866</v>
@@ -26777,7 +26779,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545558</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26805,31 +26807,31 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
     </row>
   </sheetData>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170869</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>342.7224034979614</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545558</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141001</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5445733255447</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405369</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338306</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954668</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633803</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473557</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188919</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890691</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736702</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034985</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372667</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644446</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492006</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302244</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666595</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175849</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383805</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678012</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701166</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,7 +31284,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31293,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31357,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31399,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32467,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,43 +33417,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P32" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N33" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,25 +33593,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K44" t="n">
         <v>193.1674799081577</v>
@@ -34378,25 +34380,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L45" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N45" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P45" t="n">
         <v>155.1528646479577</v>
@@ -34469,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M46" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N46" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060967</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116799</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856233</v>
+        <v>269.5389906563205</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338904</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245899</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713958</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850086</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873154</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.883913335513</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
         <v>297.223041434342</v>
@@ -35504,10 +35506,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35738,13 +35740,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N18" t="n">
         <v>559.3197334338903</v>
@@ -35981,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36209,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,13 +36448,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36680,16 +36682,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P32" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37239,10 +37241,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O34" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
         <v>478.8956552492236</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37403,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
         <v>478.8956552492236</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -37877,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,13 +38031,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,13 +38177,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M46" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N46" t="n">
         <v>148.370846145888</v>
@@ -38190,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
